--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/132.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/132.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1351097257157241</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.44546021860582</v>
+        <v>-2.510186830584354</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.06074844236753722</v>
+        <v>-0.2074380246495056</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09035208624867316</v>
+        <v>0.0133148353306562</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1216610289916372</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.541555660910184</v>
+        <v>-2.632863225902075</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1514424271586199</v>
+        <v>-0.255602850571623</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07698445477638598</v>
+        <v>-0.003518365426913448</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1133259817108404</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.725460163204612</v>
+        <v>-2.825673179997701</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2075740369604205</v>
+        <v>-0.223112376121254</v>
       </c>
       <c r="G4" t="n">
-        <v>0.106170379000134</v>
+        <v>0.01355819368067868</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.110707291948517</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.911155392605972</v>
+        <v>-3.010113802566991</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2427798782636719</v>
+        <v>-0.1768017090564507</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1342444178301704</v>
+        <v>0.03122454608268618</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1098879589445335</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.104270307039972</v>
+        <v>-3.163876329976868</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2481557191085292</v>
+        <v>-0.1495968071907803</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1336649931872597</v>
+        <v>0.02177504503782851</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1039968608554843</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.997226483627642</v>
+        <v>-2.996647973865747</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2531186436552282</v>
+        <v>-0.08415048881368345</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1255542680278641</v>
+        <v>0.0486170441008338</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.08775200466626243</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.785972833227493</v>
+        <v>-2.770017918244441</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2917741963061666</v>
+        <v>-0.1209476131625705</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1650478516886543</v>
+        <v>0.07958942598677693</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.05617316919594813</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.354582037770359</v>
+        <v>-2.275751620062703</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3032211875673742</v>
+        <v>-0.1610059833700295</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1735782022736526</v>
+        <v>0.09093273073293731</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.002654045516951158</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.952658949889631</v>
+        <v>-1.819784680856683</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4134930161613928</v>
+        <v>-0.2369551358007279</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2148155491492656</v>
+        <v>0.1609668724405331</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.07883274726226205</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.431953810212219</v>
+        <v>-1.294015369800231</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5641781887967378</v>
+        <v>-0.34620412741984</v>
       </c>
       <c r="G11" t="n">
-        <v>0.269267437407302</v>
+        <v>0.2437947102635961</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1949603973995084</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.8531775129809468</v>
+        <v>-0.7309054950719102</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9153705144682696</v>
+        <v>-0.6927073829285327</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3160282259315453</v>
+        <v>0.302469689287436</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3483720840101721</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2896169068725087</v>
+        <v>-0.1941502927858725</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.234334631580434</v>
+        <v>-0.9946528833973961</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3884367888337213</v>
+        <v>0.3674317306471949</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.5403133691219505</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3393680604686632</v>
+        <v>0.4827811488751411</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.61466103821819</v>
+        <v>-1.286025408934832</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5583204346110648</v>
+        <v>0.5644678251120085</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.7633293341635953</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8825073024782228</v>
+        <v>0.983130795886764</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.969165233164464</v>
+        <v>-1.619092111934765</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6406694847028807</v>
+        <v>0.639211164364776</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.007410889060496</v>
       </c>
       <c r="E16" t="n">
-        <v>1.447347522166478</v>
+        <v>1.542898305306506</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.346574999126011</v>
+        <v>-1.889129612199553</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7693603078140139</v>
+        <v>0.7232216383800535</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.25433293944627</v>
       </c>
       <c r="E17" t="n">
-        <v>1.967492754662636</v>
+        <v>2.053330551025451</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.719371935009312</v>
+        <v>-2.25359991100389</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8839833105159531</v>
+        <v>0.7768867289650849</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.486731408600265</v>
       </c>
       <c r="E18" t="n">
-        <v>2.343428342348483</v>
+        <v>2.397513668279794</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.07664364502633</v>
+        <v>-2.573411207936058</v>
       </c>
       <c r="G18" t="n">
-        <v>1.070043272482009</v>
+        <v>0.9674954793383275</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.688748414223421</v>
       </c>
       <c r="E19" t="n">
-        <v>2.586340230435578</v>
+        <v>2.548370228625305</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.412876141298924</v>
+        <v>-2.895917744338775</v>
       </c>
       <c r="G19" t="n">
-        <v>1.179058664481926</v>
+        <v>1.068910649785288</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.847663532705956</v>
       </c>
       <c r="E20" t="n">
-        <v>2.909388376399248</v>
+        <v>2.860692309567683</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.800879924455247</v>
+        <v>-3.216416116913299</v>
       </c>
       <c r="G20" t="n">
-        <v>1.327284636948623</v>
+        <v>1.188792998482825</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.955158844568412</v>
       </c>
       <c r="E21" t="n">
-        <v>3.220923659668621</v>
+        <v>3.149684924624448</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.084029804389103</v>
+        <v>-3.488756677653488</v>
       </c>
       <c r="G21" t="n">
-        <v>1.513712991003435</v>
+        <v>1.382639817728923</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.008043941542248</v>
       </c>
       <c r="E22" t="n">
-        <v>3.396926029675101</v>
+        <v>3.320509068085337</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.306506300201756</v>
+        <v>-3.706953360077399</v>
       </c>
       <c r="G22" t="n">
-        <v>1.581591673039403</v>
+        <v>1.395237119386478</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.01060797011517</v>
       </c>
       <c r="E23" t="n">
-        <v>3.588402087250679</v>
+        <v>3.466875392408629</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.538088301797579</v>
+        <v>-3.916431226427196</v>
       </c>
       <c r="G23" t="n">
-        <v>1.687270798937508</v>
+        <v>1.549023738663087</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.9684652394511</v>
       </c>
       <c r="E24" t="n">
-        <v>3.698939231339084</v>
+        <v>3.528749405382012</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.736430846351987</v>
+        <v>-4.067367686381361</v>
       </c>
       <c r="G24" t="n">
-        <v>1.742097788411745</v>
+        <v>1.586288672171039</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.891579434543306</v>
       </c>
       <c r="E25" t="n">
-        <v>3.789960133612903</v>
+        <v>3.593643745546652</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.824221608721749</v>
+        <v>-4.111600048740145</v>
       </c>
       <c r="G25" t="n">
-        <v>1.775105475595996</v>
+        <v>1.60840134630654</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.789922367131281</v>
       </c>
       <c r="E26" t="n">
-        <v>3.771603960925494</v>
+        <v>3.459617336355327</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.863909757078422</v>
+        <v>-4.135589448798</v>
       </c>
       <c r="G26" t="n">
-        <v>1.75320383401465</v>
+        <v>1.574236029677821</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.677807919074568</v>
       </c>
       <c r="E27" t="n">
-        <v>3.894926262239891</v>
+        <v>3.573470009242533</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.88566837226107</v>
+        <v>-4.081656603035877</v>
       </c>
       <c r="G27" t="n">
-        <v>1.719448384080706</v>
+        <v>1.524038948060779</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.565168126936355</v>
       </c>
       <c r="E28" t="n">
-        <v>3.820912388116513</v>
+        <v>3.451859145347092</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.779710512613691</v>
+        <v>-3.96218290119176</v>
       </c>
       <c r="G28" t="n">
-        <v>1.657112661155024</v>
+        <v>1.462171034294163</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.460983642628981</v>
       </c>
       <c r="E29" t="n">
-        <v>3.783437641895759</v>
+        <v>3.314614794665244</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.768881370998029</v>
+        <v>-3.94183869205849</v>
       </c>
       <c r="G29" t="n">
-        <v>1.634485823889025</v>
+        <v>1.430722914280357</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.36873153826477</v>
       </c>
       <c r="E30" t="n">
-        <v>3.706859661247334</v>
+        <v>3.177247240006693</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.618582583111404</v>
+        <v>-3.712140735433141</v>
       </c>
       <c r="G30" t="n">
-        <v>1.565599552895069</v>
+        <v>1.324283827219023</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.288908914563389</v>
       </c>
       <c r="E31" t="n">
-        <v>3.568449142231544</v>
+        <v>3.048077019243635</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.563409158692775</v>
+        <v>-3.691632152677488</v>
       </c>
       <c r="G31" t="n">
-        <v>1.474443858151688</v>
+        <v>1.175446714234224</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.21932866991995</v>
       </c>
       <c r="E32" t="n">
-        <v>3.395712287528372</v>
+        <v>2.843370562348038</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.430282992420329</v>
+        <v>-3.58461608065595</v>
       </c>
       <c r="G32" t="n">
-        <v>1.411618978843254</v>
+        <v>1.146966468233474</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.154835734796545</v>
       </c>
       <c r="E33" t="n">
-        <v>3.229175886425022</v>
+        <v>2.586442697109272</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.311015443764954</v>
+        <v>-3.514055577404321</v>
       </c>
       <c r="G33" t="n">
-        <v>1.281432020312058</v>
+        <v>0.9890445867685131</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.092349282299941</v>
       </c>
       <c r="E34" t="n">
-        <v>2.982527624272168</v>
+        <v>2.352222178665837</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.090852682039546</v>
+        <v>-3.28837730299908</v>
       </c>
       <c r="G34" t="n">
-        <v>1.177373453652071</v>
+        <v>0.8650446635822492</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.026866573414763</v>
       </c>
       <c r="E35" t="n">
-        <v>2.746688376352643</v>
+        <v>2.14559691132119</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.005634870044645</v>
+        <v>-3.219946642750655</v>
       </c>
       <c r="G35" t="n">
-        <v>1.109735080362742</v>
+        <v>0.829862609185391</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9579660819244074</v>
       </c>
       <c r="E36" t="n">
-        <v>2.540632774920079</v>
+        <v>1.944735394371813</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.784554787621408</v>
+        <v>-3.009702106110186</v>
       </c>
       <c r="G36" t="n">
-        <v>1.050907621169715</v>
+        <v>0.7335079505934096</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8831303334214251</v>
       </c>
       <c r="E37" t="n">
-        <v>2.272706820038192</v>
+        <v>1.668435228598175</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.707841709543083</v>
+        <v>-2.955461860326981</v>
       </c>
       <c r="G37" t="n">
-        <v>1.000171369674428</v>
+        <v>0.727386786681566</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8032675762848466</v>
       </c>
       <c r="E38" t="n">
-        <v>2.026955751200834</v>
+        <v>1.450982649399897</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.583415451803772</v>
+        <v>-2.862348930131915</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9562631801553353</v>
+        <v>0.6988089533725358</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7177865614017346</v>
       </c>
       <c r="E39" t="n">
-        <v>1.810588830807168</v>
+        <v>1.270096034614018</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.447540678001562</v>
+        <v>-2.726367725171613</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8577286650646563</v>
+        <v>0.5724278998642475</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6283939183427701</v>
       </c>
       <c r="E40" t="n">
-        <v>1.577471048947293</v>
+        <v>1.018434224498295</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.37117007038323</v>
+        <v>-2.684749177873032</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7540830147028285</v>
+        <v>0.5030091681194905</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5368700570261307</v>
       </c>
       <c r="E41" t="n">
-        <v>1.292847295698074</v>
+        <v>0.735656701137593</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.209030282478218</v>
+        <v>-2.558279685866615</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7074051753906229</v>
+        <v>0.4790374557612616</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4461771117016546</v>
       </c>
       <c r="E42" t="n">
-        <v>1.035307070099853</v>
+        <v>0.461230821603602</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.140603891674531</v>
+        <v>-2.514239143560668</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6720749102693149</v>
+        <v>0.4679588565888098</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.359778997142889</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8491702581285275</v>
+        <v>0.302247068240423</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.016273696441808</v>
+        <v>-2.398736025322182</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5989198044587993</v>
+        <v>0.3952532623170575</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2801479319050156</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6441143166851536</v>
+        <v>0.1058587095343158</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.945113946125273</v>
+        <v>-2.322111690702323</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5575708420993415</v>
+        <v>0.3978283474142879</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2093449245265454</v>
       </c>
       <c r="E45" t="n">
-        <v>0.56697703877615</v>
+        <v>0.05893507218938069</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.820431521701728</v>
+        <v>-2.278699976614103</v>
       </c>
       <c r="G45" t="n">
-        <v>0.496658064112513</v>
+        <v>0.3461680660937274</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1469594611079985</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3679196671885934</v>
+        <v>-0.1070365423673008</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.756871078057137</v>
+        <v>-2.263053681493485</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3862386347147213</v>
+        <v>0.2415550815385772</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.09239724846219759</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2309656387488774</v>
+        <v>-0.2196614449322135</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.683294517058988</v>
+        <v>-2.192614552456529</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3438997710969013</v>
+        <v>0.232288556696744</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.04310767664062114</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1362711842390042</v>
+        <v>-0.2536321968650501</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.593961875218407</v>
+        <v>-2.082146329404597</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2872430195924207</v>
+        <v>0.1619823903673186</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.002723654121307029</v>
       </c>
       <c r="E49" t="n">
-        <v>0.03202537193125637</v>
+        <v>-0.3539165743773192</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.501902887952762</v>
+        <v>-1.984593176682806</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2309107458879701</v>
+        <v>0.130611730279459</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.04723491732152053</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.08549841350929667</v>
+        <v>-0.4200704007394438</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.438150319294995</v>
+        <v>-1.935288409015846</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1838956204415228</v>
+        <v>0.08351121593826694</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.09200110860202014</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.1426833563198411</v>
+        <v>-0.4817913236229636</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.331429448881003</v>
+        <v>-1.824867759776701</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1370409041330602</v>
+        <v>0.07666912578650723</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1380717653277581</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.2374766179793475</v>
+        <v>-0.5955769052357278</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.265312217759484</v>
+        <v>-1.790132167315223</v>
       </c>
       <c r="G52" t="n">
-        <v>0.07612507654284796</v>
+        <v>0.00927350092652357</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1856414143736111</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.3501826399942676</v>
+        <v>-0.6844630851409292</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.194161311292762</v>
+        <v>-1.739771626956812</v>
       </c>
       <c r="G53" t="n">
-        <v>0.06952207529637348</v>
+        <v>-0.002397941143727266</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2342745485402642</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.4312069423761866</v>
+        <v>-0.7880349351008704</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.141966129538694</v>
+        <v>-1.707170756863952</v>
       </c>
       <c r="G54" t="n">
-        <v>0.01495918147516897</v>
+        <v>-0.08694209575115931</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2832376592861038</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4049218008910523</v>
+        <v>-0.7793508845053316</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.094142859195555</v>
+        <v>-1.692726005476528</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.005160881809395969</v>
+        <v>-0.1014429598408444</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3322597491780962</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.4463140676185593</v>
+        <v>-0.8147000571676188</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.070133331755367</v>
+        <v>-1.698547698336088</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.07309872615100865</v>
+        <v>-0.1592420927728741</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3809667777454283</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.5782563778574364</v>
+        <v>-0.9701688376706987</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.039228041143867</v>
+        <v>-1.671531871880209</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.08956353481982247</v>
+        <v>-0.1464246097510137</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.4301731803019886</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.626122952568624</v>
+        <v>-1.017606028225456</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.009176029559137</v>
+        <v>-1.614306674304999</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1192502039191807</v>
+        <v>-0.1954902885126879</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.479902653573644</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.6784047430587907</v>
+        <v>-1.047819668789524</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.99561688299435</v>
+        <v>-1.666712888613223</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1232622621308294</v>
+        <v>-0.204667764935716</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.5313115807646208</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.7981126544427786</v>
+        <v>-1.218983538067362</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.031852270399952</v>
+        <v>-1.690185075937195</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1605973365166083</v>
+        <v>-0.2299727638933161</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.5835634149632054</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.853399524107283</v>
+        <v>-1.351679100342023</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.001164111549374</v>
+        <v>-1.638070403712457</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1297939026581244</v>
+        <v>-0.2173955896180944</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.6368830748473646</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.863465654956333</v>
+        <v>-1.326442412500219</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.942728221430819</v>
+        <v>-1.585426320340302</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1692655291745517</v>
+        <v>-0.2608134029130817</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.6900552490854753</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.9534234654905809</v>
+        <v>-1.450029419388324</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.981546622902449</v>
+        <v>-1.61416212310461</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2139434385877004</v>
+        <v>-0.295806381900148</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.7428574457844991</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.018372088595451</v>
+        <v>-1.541801743935897</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.022852280893858</v>
+        <v>-1.630712320668169</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1998054773006804</v>
+        <v>-0.2884794048103736</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.7948991571843673</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.075793070707897</v>
+        <v>-1.577205809459092</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.07247359739205</v>
+        <v>-1.680980153083713</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2312987314445664</v>
+        <v>-0.3096961054717315</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.8459745629603779</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.095452643881517</v>
+        <v>-1.571124900311914</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.120445078459638</v>
+        <v>-1.713927458120967</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2649962389142199</v>
+        <v>-0.3633874226458631</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.8962302351992788</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.117181677911344</v>
+        <v>-1.5806366132658</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.162365536493209</v>
+        <v>-1.765695695401312</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2682428466765498</v>
+        <v>-0.3820760021021004</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.9441159478397847</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.16620954159106</v>
+        <v>-1.620114948909671</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.23676488048429</v>
+        <v>-1.789379525200115</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3110226829436586</v>
+        <v>-0.4080671618210421</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.9897763196462579</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.135549439091611</v>
+        <v>-1.513488616200576</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.355897026749428</v>
+        <v>-1.915115282632404</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2836055286824798</v>
+        <v>-0.3677703126289746</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.031419674371179</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.165391637963541</v>
+        <v>-1.56140825401064</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.387576306699722</v>
+        <v>-1.903754900107295</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2948799123921677</v>
+        <v>-0.376767862452362</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.070104765646906</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.214224936947374</v>
+        <v>-1.602508368733985</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.443330375602616</v>
+        <v>-1.971593327378598</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3053870158905065</v>
+        <v>-0.376525723943693</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.104088804303687</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.179419813528746</v>
+        <v>-1.534801074408183</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.571179508179837</v>
+        <v>-2.131883530831371</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.3405599214772135</v>
+        <v>-0.4038166246247848</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.133975875221699</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.189148048322877</v>
+        <v>-1.567120771069063</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.614869346096654</v>
+        <v>-2.190780520981547</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.3745312833307268</v>
+        <v>-0.4315161721592979</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.158392529335035</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.144344495250318</v>
+        <v>-1.502383180518347</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.679383095759003</v>
+        <v>-2.248763240037278</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.3934290655790887</v>
+        <v>-0.4402258394232602</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.177060420272124</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.099208535408932</v>
+        <v>-1.397404243557148</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.757230931256418</v>
+        <v>-2.353365246020247</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.391748124193971</v>
+        <v>-0.4426746709404036</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.188919326860603</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9868550475451722</v>
+        <v>-1.284942189812927</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.770160029762123</v>
+        <v>-2.36430112375434</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.3630550158770354</v>
+        <v>-0.4130800998632344</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.192490864254268</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.9367799500634798</v>
+        <v>-1.157367521540243</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.796104835509632</v>
+        <v>-2.380373143507328</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.3351413861849838</v>
+        <v>-0.3524271480847005</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.186849454722177</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.747830183930992</v>
+        <v>-0.9748304614030842</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.826855206269239</v>
+        <v>-2.413080749718619</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3472775878109166</v>
+        <v>-0.3662412414923673</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.1703931117885</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6273720701146041</v>
+        <v>-0.7800468039975011</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.843895780056903</v>
+        <v>-2.391681682774914</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3332829578829324</v>
+        <v>-0.3417126715562673</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-1.143967463402697</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4828153804392236</v>
+        <v>-0.6142398680235416</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.891148164646605</v>
+        <v>-2.519584488371688</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2891338496965243</v>
+        <v>-0.2727343025401225</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-1.106767759506094</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2077692115769798</v>
+        <v>-0.3062994572229216</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.888334600564766</v>
+        <v>-2.54317683006898</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2764804353367091</v>
+        <v>-0.24486397721612</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-1.060217505089546</v>
       </c>
       <c r="E82" t="n">
-        <v>0.05410815995359656</v>
+        <v>0.06539901152155661</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.848764776819383</v>
+        <v>-2.546169100909106</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1860548156433955</v>
+        <v>-0.1579563799862892</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-1.003449007519866</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2064535366710497</v>
+        <v>0.208658399917494</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.825488983953323</v>
+        <v>-2.548165981204779</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1473175336217728</v>
+        <v>-0.07871548566318151</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.9379476705838583</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4488768782960701</v>
+        <v>0.48557031612991</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.723718839672496</v>
+        <v>-2.483585140267988</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1245589534895958</v>
+        <v>-0.05728409292360825</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.8639617317078677</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6476689343892413</v>
+        <v>0.6615324313717247</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.6727178826035</v>
+        <v>-2.449596090714849</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.0998705843361879</v>
+        <v>-0.03174915387087406</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.7833477233057222</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9133936855487444</v>
+        <v>0.940552233442982</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.648868154380621</v>
+        <v>-2.477576201760666</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.09669533729303752</v>
+        <v>-0.02017041974348893</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.6981283202768376</v>
       </c>
       <c r="E87" t="n">
-        <v>1.081163346260479</v>
+        <v>1.110575551055301</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.522126027831697</v>
+        <v>-2.386217403431928</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.05557631502871369</v>
+        <v>0.03836671720740593</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.6107399897163296</v>
       </c>
       <c r="E88" t="n">
-        <v>1.251441000795002</v>
+        <v>1.306219806535776</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.337595137002249</v>
+        <v>-2.267386557981104</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.03383935203008966</v>
+        <v>0.06050561793200694</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.5237156220913205</v>
       </c>
       <c r="E89" t="n">
-        <v>1.340904775581084</v>
+        <v>1.376924251067117</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.115199150718928</v>
+        <v>-2.06498255164023</v>
       </c>
       <c r="G89" t="n">
-        <v>0.009266181878402594</v>
+        <v>0.1100275173598888</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.4382008912558429</v>
       </c>
       <c r="E90" t="n">
-        <v>1.410860847442056</v>
+        <v>1.41593355771057</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.908705626240459</v>
+        <v>-1.8879768621205</v>
       </c>
       <c r="G90" t="n">
-        <v>0.003871433492566021</v>
+        <v>0.09533330841567454</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.3566734489360937</v>
       </c>
       <c r="E91" t="n">
-        <v>1.452318985602652</v>
+        <v>1.475998545956718</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.564911638377881</v>
+        <v>-1.537488994830612</v>
       </c>
       <c r="G91" t="n">
-        <v>0.002350901245433113</v>
+        <v>0.1036416478743366</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.2805385812643957</v>
       </c>
       <c r="E92" t="n">
-        <v>1.473974829151268</v>
+        <v>1.535932401257366</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.296090929863205</v>
+        <v>-1.285752164471649</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01505493902141841</v>
+        <v>0.08933900800459463</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.2133490327022549</v>
       </c>
       <c r="E93" t="n">
-        <v>1.511855782542737</v>
+        <v>1.593392418293124</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.005579612321337</v>
+        <v>-1.016320925359548</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01189615983654022</v>
+        <v>0.1267021387415039</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1565506308898875</v>
       </c>
       <c r="E94" t="n">
-        <v>1.552459421835208</v>
+        <v>1.642714873659709</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.7460339675379689</v>
+        <v>-0.7441798086806548</v>
       </c>
       <c r="G94" t="n">
-        <v>0.004749719267083225</v>
+        <v>0.1229499067381499</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1113507392391952</v>
       </c>
       <c r="E95" t="n">
-        <v>1.53730655254208</v>
+        <v>1.646756208063842</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.5225883077699645</v>
+        <v>-0.5167922315788276</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.05480781497601114</v>
+        <v>0.07765536752080883</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.0753578635139468</v>
       </c>
       <c r="E96" t="n">
-        <v>1.455735151313118</v>
+        <v>1.596017516885848</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.3280028745843245</v>
+        <v>-0.3216627491495284</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1008196209092079</v>
+        <v>0.00450636091706075</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.04554993300266682</v>
       </c>
       <c r="E97" t="n">
-        <v>1.381882906169079</v>
+        <v>1.50837984460595</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1652144360395911</v>
+        <v>-0.1635633807676341</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1161713243429565</v>
+        <v>0.007408363497028009</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.01849649976367974</v>
       </c>
       <c r="E98" t="n">
-        <v>1.315180761118558</v>
+        <v>1.453469905919675</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.04622196160942873</v>
+        <v>-0.03992087109794454</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1744858402468383</v>
+        <v>-0.03355878851878555</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.007404110284443086</v>
       </c>
       <c r="E99" t="n">
-        <v>1.247945545396559</v>
+        <v>1.374221692548447</v>
       </c>
       <c r="F99" t="n">
-        <v>0.07615923210074585</v>
+        <v>0.07428494586109907</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2015547298015939</v>
+        <v>-0.06357786438697147</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.03278958025003692</v>
       </c>
       <c r="E100" t="n">
-        <v>1.096743769948008</v>
+        <v>1.192392140396316</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1333557634041485</v>
+        <v>0.1256616140669717</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.173106809596711</v>
+        <v>-0.02908136083077805</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.0561363827263932</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9740002833558455</v>
+        <v>1.060268073795767</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2071171303673516</v>
+        <v>0.1865932995947795</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2390081287986619</v>
+        <v>-0.1288839010084163</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.07554623866321486</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8425947033125066</v>
+        <v>0.8818986016428283</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2001640346524237</v>
+        <v>0.1795944598290955</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2251348730853505</v>
+        <v>-0.1022364666412936</v>
       </c>
     </row>
   </sheetData>
